--- a/data/acc109/revenus/data_0.xlsx.xlsx
+++ b/data/acc109/revenus/data_0.xlsx.xlsx
@@ -47,12 +47,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="88">
   <si>
     <t>Unnamed: 0</t>
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Vertices</t>
+  </si>
+  <si>
+    <t>Edges</t>
   </si>
   <si>
     <t>Diameter</t>
@@ -65,9 +71,6 @@
   </si>
   <si>
     <t>Average path length</t>
-  </si>
-  <si>
-    <t>Girth</t>
   </si>
   <si>
     <t>Reciprocity</t>
@@ -665,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -698,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -709,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.01721198018014403</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -720,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>4.036756267224621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -731,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0.01721198018014403</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -742,7 +745,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.04836829836829837</v>
+        <v>4.036756267224621</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -753,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>4.85759493670886</v>
+        <v>0.04836829836829837</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -764,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.05676072418854999</v>
+        <v>4.85759493670886</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -775,6 +778,17 @@
         <v>10</v>
       </c>
       <c r="C10">
+        <v>0.05676072418854999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>75.32867132867133</v>
       </c>
     </row>
@@ -793,43 +807,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -847,43 +861,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -903,10 +917,10 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -915,13 +929,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -939,43 +953,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -995,10 +1009,10 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1007,13 +1021,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1031,43 +1045,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1087,10 +1101,10 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1099,13 +1113,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1123,43 +1137,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1182,10 +1196,10 @@
         <v>0.1107784431137725</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1194,13 +1208,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1218,43 +1232,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1277,10 +1291,10 @@
         <v>0.09693877551020408</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1289,13 +1303,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1313,43 +1327,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1372,25 +1386,25 @@
         <v>0.02121615331114205</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1413,25 +1427,25 @@
         <v>0.01488852863939793</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1454,25 +1468,25 @@
         <v>0.02754377798288617</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1495,25 +1509,25 @@
         <v>0.04019902732637442</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1536,25 +1550,25 @@
         <v>0.01910694508722735</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1572,43 +1586,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1631,25 +1645,25 @@
         <v>0.01730044603980944</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1672,25 +1686,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1713,25 +1727,25 @@
         <v>0.008249230116225326</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1754,25 +1768,25 @@
         <v>0.04722036800599069</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1795,25 +1809,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1836,25 +1850,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1877,25 +1891,25 @@
         <v>0.01050074017088316</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1918,25 +1932,25 @@
         <v>0.009074721818720689</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1959,25 +1973,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2000,25 +2014,25 @@
         <v>0.005959879556447196</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2041,22 +2055,22 @@
         <v>0.007284297235657685</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2074,43 +2088,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2133,25 +2147,25 @@
         <v>0.005383189171850142</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2174,25 +2188,25 @@
         <v>0.0195682792598885</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2215,25 +2229,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2256,25 +2270,25 @@
         <v>0.03281799992036766</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2297,25 +2311,25 @@
         <v>0.007747663340573277</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2338,25 +2352,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2379,25 +2393,25 @@
         <v>0.005996196893901126</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2420,25 +2434,25 @@
         <v>0.01047995099738183</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2461,25 +2475,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2502,25 +2516,25 @@
         <v>0.007047076761904417</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2538,43 +2552,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2597,25 +2611,25 @@
         <v>0.008293487451344667</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2638,25 +2652,25 @@
         <v>0.005245070442201763</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2679,25 +2693,25 @@
         <v>0.006388226820630351</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2720,25 +2734,25 @@
         <v>0.01130726335811095</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2761,25 +2775,25 @@
         <v>0.005187912623280333</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2802,25 +2816,25 @@
         <v>0.01120261881128048</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>115</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2843,25 +2857,25 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2884,25 +2898,25 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2925,25 +2939,25 @@
         <v>0.006007174694487489</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2961,43 +2975,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3015,43 +3029,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3074,25 +3088,25 @@
         <v>0.002174932701886839</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3115,25 +3129,25 @@
         <v>0.002174932701886839</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3156,25 +3170,25 @@
         <v>0.004023625498490652</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3197,25 +3211,25 @@
         <v>0.002483048167987474</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3238,25 +3252,25 @@
         <v>0.002380343012620596</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3279,25 +3293,25 @@
         <v>0.008385753816279175</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3320,25 +3334,25 @@
         <v>0.0027392448684357</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3361,25 +3375,25 @@
         <v>0.002531327239078704</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3402,25 +3416,25 @@
         <v>0.002174932701886839</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3443,25 +3457,25 @@
         <v>0.002483048167987474</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3484,25 +3498,25 @@
         <v>0.01734829588343972</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3525,25 +3539,25 @@
         <v>0.002637105901037792</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3566,25 +3580,25 @@
         <v>0.002531327239078704</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3607,25 +3621,25 @@
         <v>0.007461407417977269</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>115</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3648,25 +3662,25 @@
         <v>0.006679814193777506</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16">
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3684,43 +3698,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3743,25 +3757,25 @@
         <v>0.009672939898139313</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3784,25 +3798,25 @@
         <v>0.00358257033264419</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3825,25 +3839,25 @@
         <v>0.00358257033264419</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3866,25 +3880,25 @@
         <v>0.01036391539994382</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3907,25 +3921,25 @@
         <v>0.00358257033264419</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3948,25 +3962,25 @@
         <v>0.00358257033264419</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3989,25 +4003,25 @@
         <v>0.004099571755953962</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4030,25 +4044,25 @@
         <v>0.0037616988492764</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4071,25 +4085,25 @@
         <v>0.01700152959778503</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4112,25 +4126,25 @@
         <v>0.01125644299711175</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4148,43 +4162,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4207,25 +4221,25 @@
         <v>0.00292702421402444</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4248,25 +4262,25 @@
         <v>0.00292702421402444</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4289,25 +4303,25 @@
         <v>0.005750928758478649</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4330,22 +4344,22 @@
         <v>0.003942822446682694</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4368,25 +4382,25 @@
         <v>0.1513665397906141</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4409,25 +4423,25 @@
         <v>0.003271297970091157</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4450,25 +4464,25 @@
         <v>0.006907172599044355</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4491,25 +4505,25 @@
         <v>0.00292702421402444</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4532,25 +4546,25 @@
         <v>0.003779798149249169</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4573,25 +4587,25 @@
         <v>0.003240223586510279</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4614,25 +4628,25 @@
         <v>0.003549016859504633</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4655,25 +4669,25 @@
         <v>0.01034242762111882</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4696,25 +4710,25 @@
         <v>0.00292702421402444</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4737,25 +4751,25 @@
         <v>0.0255942153473482</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4778,25 +4792,25 @@
         <v>0.01475973985492499</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16">
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4814,43 +4828,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4873,25 +4887,25 @@
         <v>0.005648528134891399</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4914,25 +4928,25 @@
         <v>0.005607072336911726</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4955,25 +4969,25 @@
         <v>0.003934787604850334</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4996,22 +5010,22 @@
         <v>0.003934787604850334</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5034,25 +5048,25 @@
         <v>0.006889831500065718</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5075,25 +5089,25 @@
         <v>0.006520451013163794</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5116,25 +5130,25 @@
         <v>0.007822175016746601</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5157,22 +5171,22 @@
         <v>0.007898102419835833</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5195,25 +5209,25 @@
         <v>0.008182990416673128</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5236,25 +5250,25 @@
         <v>0.008391426415793943</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5277,25 +5291,25 @@
         <v>0.005607072336911726</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5318,25 +5332,25 @@
         <v>0.04662751727501063</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5359,25 +5373,25 @@
         <v>0.005151344216386006</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5400,25 +5414,25 @@
         <v>0.007823681213224565</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -5441,25 +5455,25 @@
         <v>0.008226985083807908</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16">
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -5482,25 +5496,25 @@
         <v>0.003934787604850334</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17">
         <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5518,43 +5532,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5577,25 +5591,25 @@
         <v>0.006339010498769182</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5618,25 +5632,25 @@
         <v>0.004842299686559793</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5659,25 +5673,25 @@
         <v>0.02572589231923675</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5700,25 +5714,25 @@
         <v>0.01442500653797343</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5741,22 +5755,22 @@
         <v>0.01322503099841288</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5779,25 +5793,25 @@
         <v>0.006900277053347705</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5820,25 +5834,25 @@
         <v>0.008958254420135616</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5861,25 +5875,25 @@
         <v>0.004842299686559793</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5902,25 +5916,25 @@
         <v>0.00788421073224734</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5943,25 +5957,25 @@
         <v>0.01376020160930741</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5984,25 +5998,25 @@
         <v>0.004842299686559793</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6025,25 +6039,25 @@
         <v>0.01551953951047078</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6061,43 +6075,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6120,22 +6134,22 @@
         <v>0.004206461760735806</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6158,25 +6172,25 @@
         <v>0.008818159085228929</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6199,25 +6213,25 @@
         <v>0.01147392771993314</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6240,22 +6254,22 @@
         <v>0.004206461760735806</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6278,25 +6292,25 @@
         <v>0.006146267517290692</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6319,25 +6333,25 @@
         <v>0.01699994686152631</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6360,25 +6374,25 @@
         <v>0.01144045928199677</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6401,22 +6415,22 @@
         <v>0.007781954257361241</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6439,25 +6453,25 @@
         <v>0.004206461760735806</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6480,25 +6494,25 @@
         <v>0.004564011010398349</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6521,25 +6535,25 @@
         <v>0.008409636699271486</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6557,43 +6571,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6616,22 +6630,22 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6654,25 +6668,25 @@
         <v>0.006838739844564289</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6695,25 +6709,25 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6736,25 +6750,25 @@
         <v>0.005609379568545192</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6777,25 +6791,25 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6818,25 +6832,25 @@
         <v>0.01117242368384012</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6859,22 +6873,22 @@
         <v>0.004308540154124118</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6897,25 +6911,25 @@
         <v>0.005311327355954018</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6938,25 +6952,25 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6979,25 +6993,25 @@
         <v>0.007505651031457921</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7020,22 +7034,22 @@
         <v>0.005311327355954018</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7058,25 +7072,25 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7099,25 +7113,25 @@
         <v>0.005098355068987805</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -7140,25 +7154,25 @@
         <v>0.00398290821042474</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -7181,25 +7195,25 @@
         <v>0.004905382744666602</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16">
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -7222,25 +7236,25 @@
         <v>0.006838739844564286</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17">
         <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7263,25 +7277,25 @@
         <v>0.00422813145636061</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18">
         <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -7304,25 +7318,25 @@
         <v>0.004839204005829359</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19">
         <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -7340,43 +7354,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7399,25 +7413,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7440,22 +7454,22 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7478,25 +7492,25 @@
         <v>0.004861071257535017</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7519,25 +7533,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -7560,25 +7574,25 @@
         <v>0.0170899295550792</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7601,22 +7615,22 @@
         <v>0.004154049758476446</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7639,25 +7653,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7680,25 +7694,25 @@
         <v>0.006173643244019599</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7721,25 +7735,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7762,25 +7776,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7803,25 +7817,25 @@
         <v>0.003929650482304984</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7844,25 +7858,25 @@
         <v>0.00527998296874027</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7885,25 +7899,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -7926,25 +7940,25 @@
         <v>0.005719801493916317</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -7962,43 +7976,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8021,25 +8035,25 @@
         <v>0.005161630287890279</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8062,22 +8076,22 @@
         <v>0.005161630287890279</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8100,25 +8114,25 @@
         <v>0.007205216096040577</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -8141,22 +8155,22 @@
         <v>0.005161630287890279</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8179,25 +8193,25 @@
         <v>0.005161630287890279</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8220,25 +8234,25 @@
         <v>0.005161630287890279</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -8261,22 +8275,22 @@
         <v>0.007976869474077102</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -8299,25 +8313,25 @@
         <v>0.007976869474077102</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -8340,25 +8354,25 @@
         <v>0.006624092202792525</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -8381,25 +8395,25 @@
         <v>0.009549016032597016</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -8422,25 +8436,25 @@
         <v>0.009549016032597016</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -8458,43 +8472,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8517,25 +8531,25 @@
         <v>0.005338706455414552</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8558,25 +8572,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8599,25 +8613,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -8640,25 +8654,25 @@
         <v>0.005188046144896145</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8681,25 +8695,25 @@
         <v>0.005209421541252091</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8722,22 +8736,22 @@
         <v>0.01125480570302288</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -8760,25 +8774,25 @@
         <v>0.00495085171292717</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -8801,25 +8815,25 @@
         <v>0.008441544395313609</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -8842,22 +8856,22 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -8880,25 +8894,25 @@
         <v>0.006438144493808856</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -8921,25 +8935,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -8962,25 +8976,25 @@
         <v>0.008441544395313609</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -9003,25 +9017,25 @@
         <v>0.008441544395313609</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -9044,25 +9058,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -9085,25 +9099,25 @@
         <v>0.009891982734376794</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16">
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -9121,43 +9135,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -9180,10 +9194,10 @@
         <v>0.229059829059829</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -9192,13 +9206,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -9216,43 +9230,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -9275,25 +9289,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -9316,22 +9330,22 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9354,25 +9368,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9395,22 +9409,22 @@
         <v>0.008060171057511523</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9433,25 +9447,25 @@
         <v>0.005976781813406206</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9474,25 +9488,25 @@
         <v>0.007121644268219848</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9515,22 +9529,22 @@
         <v>0.01938659681344563</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9553,25 +9567,25 @@
         <v>0.01046408172378689</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -9594,25 +9608,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9635,25 +9649,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -9676,25 +9690,25 @@
         <v>0.008060171057511523</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -9717,25 +9731,25 @@
         <v>0.01615333696730526</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -9758,25 +9772,25 @@
         <v>0.01104788859988234</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -9799,25 +9813,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -9835,43 +9849,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -9894,25 +9908,25 @@
         <v>0.01121926665043763</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -9935,25 +9949,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9976,25 +9990,25 @@
         <v>0.008600109793885201</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -10017,25 +10031,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -10058,25 +10072,25 @@
         <v>0.00864186755506682</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10099,22 +10113,22 @@
         <v>0.00797174379027041</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -10137,25 +10151,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -10178,25 +10192,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -10219,25 +10233,25 @@
         <v>0.01121926665043763</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10260,25 +10274,25 @@
         <v>0.00864186755506682</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -10301,25 +10315,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -10337,43 +10351,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10396,25 +10410,25 @@
         <v>0.01553352234634599</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10437,25 +10451,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -10478,25 +10492,25 @@
         <v>0.01312174574132361</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -10519,25 +10533,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -10560,25 +10574,25 @@
         <v>0.008764916100649757</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10601,25 +10615,25 @@
         <v>0.006626108822500774</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -10637,43 +10651,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10696,25 +10710,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10737,25 +10751,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -10778,25 +10792,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -10819,25 +10833,25 @@
         <v>0.06992384360071463</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -10860,25 +10874,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10901,25 +10915,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -10942,25 +10956,25 @@
         <v>0.006161795392866477</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -10983,25 +10997,25 @@
         <v>0.01058164862825593</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -11019,29 +11033,29 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11061,7 +11075,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -11081,7 +11095,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -11101,7 +11115,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -11121,7 +11135,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -11141,7 +11155,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>1.333333333333333</v>
@@ -11161,7 +11175,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -11181,12 +11195,12 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -11203,7 +11217,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -11220,7 +11234,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -11237,7 +11251,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -11257,7 +11271,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -11277,7 +11291,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>1.4</v>
@@ -11297,7 +11311,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -11317,7 +11331,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>6.3</v>
@@ -11337,7 +11351,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19">
         <v>8.888888888888889</v>
@@ -11357,7 +11371,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20">
         <v>9.199999999999999</v>
@@ -11377,7 +11391,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>7.9</v>
@@ -11397,7 +11411,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>10.13333333333333</v>
@@ -11417,7 +11431,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23">
         <v>10.125</v>
@@ -11437,7 +11451,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24">
         <v>4.416666666666667</v>
@@ -11457,7 +11471,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25">
         <v>12.18181818181818</v>
@@ -11477,7 +11491,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>6.611111111111111</v>
@@ -11497,7 +11511,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>6.428571428571429</v>
@@ -11517,7 +11531,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>7.090909090909091</v>
@@ -11537,7 +11551,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29">
         <v>4.266666666666667</v>
@@ -11557,7 +11571,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <v>4.285714285714286</v>
@@ -11577,7 +11591,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31">
         <v>5.090909090909091</v>
@@ -11597,7 +11611,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>5.833333333333333</v>
@@ -11617,7 +11631,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33">
         <v>5.375</v>
@@ -11650,43 +11664,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -11709,10 +11723,10 @@
         <v>0.208029197080292</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -11721,13 +11735,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -11745,43 +11759,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -11804,10 +11818,10 @@
         <v>0.3313696612665685</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -11816,13 +11830,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -11840,43 +11854,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -11899,10 +11913,10 @@
         <v>0.1365313653136531</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -11911,13 +11925,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -11940,10 +11954,10 @@
         <v>0.1230890880337375</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -11952,13 +11966,13 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -11981,10 +11995,10 @@
         <v>0.08948339483394833</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -11993,13 +12007,13 @@
         <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -12017,43 +12031,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12076,10 +12090,10 @@
         <v>0.2233856893542757</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -12088,13 +12102,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12117,10 +12131,10 @@
         <v>0.1343804537521815</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -12129,13 +12143,13 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -12153,43 +12167,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12212,10 +12226,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -12224,13 +12238,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12253,10 +12267,10 @@
         <v>0.1873479318734793</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -12265,13 +12279,13 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12294,10 +12308,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -12306,13 +12320,13 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -12330,43 +12344,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12389,10 +12403,10 @@
         <v>0.25</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -12401,13 +12415,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
